--- a/data/output/FV2410_FV2404/UTILMD/55004.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="212">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="212">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -758,6 +758,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U85" totalsRowShown="0">
+  <autoFilter ref="A1:U85"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,7 +1077,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5209,5 +5242,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55004.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="295">
   <si>
     <t>#</t>
   </si>
@@ -4574,52 +4574,50 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5" t="s">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4651,9 +4649,7 @@
         <v>194</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>33</v>
       </c>
@@ -4709,9 +4705,7 @@
         <v>194</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>33</v>
       </c>
@@ -4738,46 +4732,44 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="V65" s="5" t="s">
+      <c r="V65" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4805,9 +4797,7 @@
         <v>193</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>
@@ -4859,9 +4849,7 @@
         <v>194</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>34</v>
       </c>
@@ -4919,9 +4907,7 @@
       <c r="K68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L68" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>34</v>
       </c>
@@ -4950,44 +4936,42 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -5013,9 +4997,7 @@
         <v>193</v>
       </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="5" t="s">
         <v>35</v>
       </c>
@@ -5067,9 +5049,7 @@
         <v>194</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>35</v>
       </c>
@@ -5127,9 +5107,7 @@
         <v>194</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>
@@ -5158,46 +5136,44 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="L73" s="4"/>
+      <c r="M73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="V73" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5225,9 +5201,7 @@
         <v>193</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>36</v>
       </c>
@@ -5279,9 +5253,7 @@
         <v>194</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>36</v>
       </c>
@@ -5310,52 +5282,50 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5" t="s">
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5387,9 +5357,7 @@
         <v>194</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>37</v>
       </c>
@@ -5447,9 +5415,7 @@
       <c r="K78" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>37</v>
       </c>
@@ -5478,44 +5444,42 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5541,9 +5505,7 @@
         <v>193</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>38</v>
       </c>
@@ -5595,9 +5557,7 @@
         <v>194</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>
@@ -5655,9 +5615,7 @@
         <v>194</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>38</v>
       </c>
@@ -5686,48 +5644,46 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5" t="s">
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5" t="s">
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5755,9 +5711,7 @@
         <v>194</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>39</v>
       </c>
@@ -5807,9 +5761,7 @@
         <v>194</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>39</v>
       </c>

--- a/data/output/FV2410_FV2404/UTILMD/55004.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55004.xlsx
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3566,7 +3566,7 @@
         <v>207</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3786,7 +3786,7 @@
         <v>208</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4006,7 +4006,7 @@
         <v>209</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4754,7 +4754,7 @@
         <v>209</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5158,7 +5158,7 @@
         <v>209</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2"/>
